--- a/test_bl/test_trassa_plugin/resources_trassa/TrassaTests_v01.xlsx
+++ b/test_bl/test_trassa_plugin/resources_trassa/TrassaTests_v01.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\kronshtadt\QA\BL\tests\trassa\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\data\kronshtadt\QA\BL\AutomationFrameworkDesign\gitlabAutotestingMussonBL2\test_bl\resources\tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13380"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13380" firstSheet="2" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="trassa_Tests" sheetId="3" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="379">
   <si>
     <t>1.1.1</t>
   </si>
@@ -448,60 +448,6 @@
   </si>
   <si>
     <t>$PAIDD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1)xxxxxxx </t>
-  </si>
-  <si>
-    <t>(2)llll.ll</t>
-  </si>
-  <si>
-    <t>(3)a</t>
-  </si>
-  <si>
-    <t>(4)yyyyy.y</t>
-  </si>
-  <si>
-    <t>(5)a</t>
-  </si>
-  <si>
-    <t>(6)x.x</t>
-  </si>
-  <si>
-    <t>(7)x.x</t>
-  </si>
-  <si>
-    <t>(8)x.x</t>
-  </si>
-  <si>
-    <t>1-  идентификатор сопровождаемого АИС суднав МПС (MMSI)</t>
-  </si>
-  <si>
-    <t>2-  широта</t>
-  </si>
-  <si>
-    <t>3-  признак полушария "N","S"</t>
-  </si>
-  <si>
-    <t>4-  долгота</t>
-  </si>
-  <si>
-    <t>5-  признак полушария"E","W"</t>
-  </si>
-  <si>
-    <t>6-  скорость судна относительно грунта в узлах</t>
-  </si>
-  <si>
-    <t>7-  путевой угол судна в градусах</t>
-  </si>
-  <si>
-    <t>8-  курс судна в градусах (истинный)</t>
-  </si>
-  <si>
-    <t>9-  время получения данных (UTC)</t>
-  </si>
-  <si>
-    <t>10- контрольная сумма предложения</t>
   </si>
   <si>
     <t>$PAISD</t>
@@ -1090,28 +1036,10 @@
     <t>(9) hhmmss.ss</t>
   </si>
   <si>
-    <t>(10)*hh</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Field: MMSI</t>
-  </si>
-  <si>
     <t>AIVDM type 1 or 18</t>
   </si>
   <si>
-    <t>Field: Longitude</t>
-  </si>
-  <si>
     <t>Calculated in plugin</t>
-  </si>
-  <si>
-    <t>Field: Speed Over Ground</t>
-  </si>
-  <si>
-    <t>Field: Latitude</t>
-  </si>
-  <si>
-    <t>Field:True Heading (HDG)</t>
   </si>
   <si>
     <t>Проверка передачи информации о статусе судна из изделия "Трасса"
@@ -1129,22 +1057,10 @@
     <t>AIVDM type 5 or 24</t>
   </si>
   <si>
-    <t>Field: MMSI</t>
-  </si>
-  <si>
     <t>Notes</t>
   </si>
   <si>
-    <t>Field: IMO Number</t>
-  </si>
-  <si>
     <t>Not available in type 24</t>
-  </si>
-  <si>
-    <t>Field: Call Sign</t>
-  </si>
-  <si>
-    <t>Field: Vessel Nam</t>
   </si>
   <si>
     <t>1) Поля из сообщения AIVDM (5,24) должны быть перенесены согласно таблице мапинга  (см. Таблицу  $PAISD; Note: поле IMO Number отсутствует в  AIVDM (24) )
@@ -1301,6 +1217,177 @@
     <t>1) Из имитатора в КД передаются неверно сфомированные 
 сообщения AIVDM (5, 24) (см. Таблицу $PAIDD)
 2) В логах КД выявить сообщение об ошибке</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) xxxxxxx </t>
+  </si>
+  <si>
+    <t>(2) llll.ll</t>
+  </si>
+  <si>
+    <t>(3) a</t>
+  </si>
+  <si>
+    <t>(4) yyyyy.y</t>
+  </si>
+  <si>
+    <t>(5) a</t>
+  </si>
+  <si>
+    <t>(6) x.x</t>
+  </si>
+  <si>
+    <t>(7) x.x</t>
+  </si>
+  <si>
+    <t>(8) x.x</t>
+  </si>
+  <si>
+    <t>(10) *hh</t>
+  </si>
+  <si>
+    <t>(1) -  идентификатор сопровождаемого АИС суднав МПС (MMSI)</t>
+  </si>
+  <si>
+    <t>(2) -  широта</t>
+  </si>
+  <si>
+    <t>(3) -  признак полушария "N","S"</t>
+  </si>
+  <si>
+    <t>(4) -  долгота</t>
+  </si>
+  <si>
+    <t>(5) -  признак полушария"E","W"</t>
+  </si>
+  <si>
+    <t>(6) -  скорость судна относительно грунта в узлах</t>
+  </si>
+  <si>
+    <t>(7) -  путевой угол судна в градусах</t>
+  </si>
+  <si>
+    <t>(8) -  курс судна в градусах (истинный)</t>
+  </si>
+  <si>
+    <t>(9) -  время получения данных (UTC)</t>
+  </si>
+  <si>
+    <t>(10) - контрольная сумма предложения</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AIVDM Field: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>MMSI</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AIVDM Field: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Longitude</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AIVDM Field: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Latitude</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AIVDM Field: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Speed Over Ground(SOG)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AIVDM Field: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>True Heading (HDG)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">AIVDM Field: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Course Over Ground (COG)</t>
+    </r>
+  </si>
+  <si>
+    <t>AIVDM Field: MMSI</t>
+  </si>
+  <si>
+    <t>AIVDM Field: IMO Number</t>
+  </si>
+  <si>
+    <t>AIVDM Field: Call Sign</t>
+  </si>
+  <si>
+    <t>AIVDM Field: Vessel Name</t>
   </si>
 </sst>
 </file>
@@ -1398,7 +1485,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1447,8 +1534,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1495,12 +1600,60 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1555,8 +1708,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1570,15 +1721,6 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1592,9 +1734,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1640,18 +1779,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1684,6 +1811,59 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2088,7 +2268,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="A9" sqref="A9:H15"/>
     </sheetView>
   </sheetViews>
@@ -2106,290 +2286,290 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="60" t="s">
-        <v>327</v>
-      </c>
-      <c r="C2" s="60" t="s">
+      <c r="B2" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="C2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="61" t="s">
+      <c r="D2" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="50" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="159.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="37">
+      <c r="A3" s="31">
         <v>1</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C3" s="38" t="s">
+      <c r="B3" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>311</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>312</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>322</v>
+      </c>
+      <c r="G3" s="33"/>
+      <c r="H3" s="34"/>
+    </row>
+    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A4" s="31">
+        <v>2</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C4" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="F4" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="G4" s="33"/>
+      <c r="H4" s="34"/>
+    </row>
+    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A5" s="31">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>341</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="33" t="s">
+        <v>342</v>
+      </c>
+      <c r="F5" s="33" t="s">
+        <v>343</v>
+      </c>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A6" s="31">
+        <v>4</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="33" t="s">
+        <v>346</v>
+      </c>
+      <c r="F6" s="33" t="s">
+        <v>345</v>
+      </c>
+      <c r="G6" s="33"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="1:8" ht="87" x14ac:dyDescent="0.35">
+      <c r="A7" s="31">
+        <v>5</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>318</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="F7" s="33" t="s">
+        <v>321</v>
+      </c>
+      <c r="G7" s="33"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="31">
+        <v>6</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>315</v>
+      </c>
+      <c r="C8" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="33" t="s">
+        <v>339</v>
+      </c>
+      <c r="F8" s="33" t="s">
+        <v>323</v>
+      </c>
+      <c r="G8" s="33"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="B9" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>319</v>
+      </c>
+      <c r="D9" s="50"/>
+      <c r="E9" s="53" t="s">
+        <v>320</v>
+      </c>
+      <c r="F9" s="53" t="s">
+        <v>324</v>
+      </c>
+      <c r="G9" s="53"/>
+      <c r="H9" s="54"/>
+    </row>
+    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A10" s="50">
+        <v>8</v>
+      </c>
+      <c r="B10" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" s="53" t="s">
+        <v>330</v>
+      </c>
+      <c r="G10" s="53"/>
+      <c r="H10" s="54"/>
+    </row>
+    <row r="11" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="50">
+        <v>9</v>
+      </c>
+      <c r="B11" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>329</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="F11" s="53" t="s">
+        <v>334</v>
+      </c>
+      <c r="G11" s="53"/>
+      <c r="H11" s="54"/>
+    </row>
+    <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
+      <c r="A12" s="50">
+        <v>10</v>
+      </c>
+      <c r="B12" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C12" s="52" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="37" t="s">
-        <v>329</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>330</v>
-      </c>
-      <c r="F3" s="39" t="s">
+      <c r="D12" s="54"/>
+      <c r="E12" s="53" t="s">
         <v>340</v>
       </c>
-      <c r="G3" s="39"/>
-      <c r="H3" s="40"/>
-    </row>
-    <row r="4" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A4" s="37">
-        <v>2</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="D4" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="40"/>
-    </row>
-    <row r="5" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A5" s="37">
-        <v>3</v>
-      </c>
-      <c r="B5" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>369</v>
-      </c>
-      <c r="D5" s="37"/>
-      <c r="E5" s="39" t="s">
-        <v>370</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>371</v>
-      </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-    </row>
-    <row r="6" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A6" s="37">
-        <v>4</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>372</v>
-      </c>
-      <c r="D6" s="37"/>
-      <c r="E6" s="39" t="s">
-        <v>374</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>373</v>
-      </c>
-      <c r="G6" s="39"/>
-      <c r="H6" s="40"/>
-    </row>
-    <row r="7" spans="1:8" ht="87" x14ac:dyDescent="0.35">
-      <c r="A7" s="37">
-        <v>5</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>336</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>328</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>331</v>
-      </c>
-      <c r="F7" s="39" t="s">
-        <v>339</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="40"/>
-    </row>
-    <row r="8" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A8" s="37">
-        <v>6</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>332</v>
-      </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="39" t="s">
-        <v>367</v>
-      </c>
-      <c r="F8" s="39" t="s">
-        <v>341</v>
-      </c>
-      <c r="G8" s="39"/>
-      <c r="H8" s="40"/>
-    </row>
-    <row r="9" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A9" s="60">
-        <v>7</v>
-      </c>
-      <c r="B9" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="C9" s="62" t="s">
-        <v>337</v>
-      </c>
-      <c r="D9" s="60"/>
-      <c r="E9" s="63" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" s="63" t="s">
-        <v>342</v>
-      </c>
-      <c r="G9" s="63"/>
-      <c r="H9" s="64"/>
-    </row>
-    <row r="10" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A10" s="60">
-        <v>8</v>
-      </c>
-      <c r="B10" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>352</v>
-      </c>
-      <c r="D10" s="60"/>
-      <c r="E10" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>354</v>
-      </c>
-      <c r="G10" s="63"/>
-      <c r="H10" s="64"/>
-    </row>
-    <row r="11" spans="1:8" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A11" s="60">
-        <v>9</v>
-      </c>
-      <c r="B11" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>353</v>
-      </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="63" t="s">
-        <v>366</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>362</v>
-      </c>
-      <c r="G11" s="63"/>
-      <c r="H11" s="64"/>
-    </row>
-    <row r="12" spans="1:8" ht="58" x14ac:dyDescent="0.35">
-      <c r="A12" s="60">
-        <v>10</v>
-      </c>
-      <c r="B12" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>363</v>
-      </c>
-      <c r="D12" s="64"/>
-      <c r="E12" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="G12" s="64"/>
-      <c r="H12" s="64"/>
+      <c r="F12" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
     </row>
     <row r="13" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="60">
+      <c r="A13" s="50">
         <v>11</v>
       </c>
-      <c r="B13" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="63" t="s">
-        <v>368</v>
-      </c>
-      <c r="F13" s="63" t="s">
-        <v>376</v>
-      </c>
-      <c r="G13" s="64"/>
-      <c r="H13" s="64"/>
+      <c r="B13" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="53" t="s">
+        <v>340</v>
+      </c>
+      <c r="F13" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="G13" s="54"/>
+      <c r="H13" s="54"/>
     </row>
     <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="60">
+      <c r="A14" s="50">
         <v>12</v>
       </c>
-      <c r="B14" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="F14" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
+      <c r="B14" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C14" s="52"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="F14" s="53" t="s">
+        <v>347</v>
+      </c>
+      <c r="G14" s="54"/>
+      <c r="H14" s="54"/>
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="60">
+      <c r="A15" s="50">
         <v>13</v>
       </c>
-      <c r="B15" s="60" t="s">
-        <v>334</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="64"/>
-      <c r="E15" s="63" t="s">
-        <v>377</v>
-      </c>
-      <c r="F15" s="63" t="s">
-        <v>376</v>
-      </c>
-      <c r="G15" s="64"/>
-      <c r="H15" s="64"/>
+      <c r="B15" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="F15" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="G15" s="54"/>
+      <c r="H15" s="54"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2696,143 +2876,157 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.90625" style="2" customWidth="1"/>
     <col min="2" max="2" width="32.36328125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="24" style="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.1796875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="8.453125" style="4" customWidth="1"/>
     <col min="5" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="49" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="52" t="s">
+    <row r="1" spans="1:4" s="43" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="57" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="53" t="s">
-        <v>346</v>
-      </c>
-      <c r="D1" s="49" t="s">
+      <c r="B1" s="58"/>
+      <c r="C1" s="56" t="s">
+        <v>326</v>
+      </c>
+      <c r="D1" s="61" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="B2" s="62" t="s">
+        <v>359</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="D2" s="60"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="60"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="B4" s="62" t="s">
+        <v>361</v>
+      </c>
+      <c r="C4" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" s="60"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="B5" s="62" t="s">
+        <v>362</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>371</v>
+      </c>
+      <c r="D5" s="60"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="63" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="C6" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" s="60"/>
+    </row>
+    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="63" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="D7" s="60" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="63" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="62" t="s">
+        <v>365</v>
+      </c>
+      <c r="C8" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="D8" s="60"/>
+    </row>
+    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="63" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" s="4" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
-        <v>139</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="s">
-        <v>140</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="50" t="s">
-        <v>142</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>150</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="50" t="s">
-        <v>143</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
+      <c r="B9" s="62" t="s">
+        <v>366</v>
+      </c>
+      <c r="C9" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="60"/>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="63" t="s">
+        <v>325</v>
+      </c>
+      <c r="B10" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>327</v>
+      </c>
+      <c r="D10" s="60"/>
+    </row>
+    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" s="55"/>
+      <c r="D11" s="60"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="65" t="s">
         <v>145</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="50" t="s">
-        <v>343</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="29" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
-        <v>344</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
-        <v>163</v>
-      </c>
+      <c r="B12" s="59"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="60"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2845,12 +3039,12 @@
   <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="H2" sqref="H2:I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="23.90625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="23.90625" style="28" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="3"/>
     <col min="3" max="3" width="23.6328125" style="3" customWidth="1"/>
     <col min="4" max="4" width="21" style="3" customWidth="1"/>
@@ -2862,56 +3056,56 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
+      <c r="A1" s="68" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28" t="s">
-        <v>170</v>
-      </c>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="H2" s="29" t="s">
-        <v>171</v>
+      <c r="A2" s="70" t="s">
+        <v>152</v>
+      </c>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="H2" s="24" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C3" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F3" s="22" t="s">
+      <c r="F3" s="20" t="s">
         <v>54</v>
       </c>
       <c r="H3" s="18">
         <v>0</v>
       </c>
       <c r="I3" s="18" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="26" t="s">
         <v>55</v>
       </c>
       <c r="B4" s="18">
@@ -2927,17 +3121,17 @@
         <v>58</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="H4" s="18">
         <v>1</v>
       </c>
       <c r="I4" s="18" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31">
+      <c r="A5" s="26">
         <v>43287</v>
       </c>
       <c r="B5" s="18">
@@ -2953,17 +3147,17 @@
         <v>58</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="H5" s="18">
         <v>2</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31">
+      <c r="A6" s="26">
         <v>13728</v>
       </c>
       <c r="B6" s="18">
@@ -2985,50 +3179,50 @@
         <v>3</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31" t="s">
-        <v>178</v>
+      <c r="A7" s="26" t="s">
+        <v>160</v>
       </c>
       <c r="B7" s="18">
         <v>4</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
       <c r="H7" s="18">
         <v>4</v>
       </c>
       <c r="I7" s="18" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="31" t="s">
-        <v>184</v>
+      <c r="A8" s="26" t="s">
+        <v>166</v>
       </c>
       <c r="B8" s="18">
         <v>8</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
       <c r="F8" s="18" t="s">
         <v>81</v>
@@ -3037,18 +3231,18 @@
         <v>5</v>
       </c>
       <c r="I8" s="18" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
-        <v>189</v>
+      <c r="A9" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="B9" s="18">
         <v>10</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>75</v>
@@ -3063,12 +3257,12 @@
         <v>6</v>
       </c>
       <c r="I9" s="18" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31" t="s">
-        <v>192</v>
+      <c r="A10" s="26" t="s">
+        <v>174</v>
       </c>
       <c r="B10" s="18">
         <v>1</v>
@@ -3089,12 +3283,12 @@
         <v>7</v>
       </c>
       <c r="I10" s="18" t="s">
-        <v>193</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31" t="s">
-        <v>194</v>
+      <c r="A11" s="26" t="s">
+        <v>176</v>
       </c>
       <c r="B11" s="18">
         <v>28</v>
@@ -3109,18 +3303,18 @@
         <v>85</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="H11" s="18">
         <v>8</v>
       </c>
       <c r="I11" s="18" t="s">
-        <v>196</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31" t="s">
-        <v>197</v>
+      <c r="A12" s="26" t="s">
+        <v>179</v>
       </c>
       <c r="B12" s="18">
         <v>27</v>
@@ -3135,24 +3329,24 @@
         <v>85</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="H12" s="18">
         <v>9</v>
       </c>
       <c r="I12" s="18" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31" t="s">
-        <v>199</v>
+      <c r="A13" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="B13" s="18">
         <v>12</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>92</v>
@@ -3161,24 +3355,24 @@
         <v>76</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="H13" s="18">
         <v>10</v>
       </c>
       <c r="I13" s="18" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31" t="s">
-        <v>203</v>
+      <c r="A14" s="26" t="s">
+        <v>185</v>
       </c>
       <c r="B14" s="18">
         <v>9</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
       <c r="D14" s="18" t="s">
         <v>96</v>
@@ -3187,18 +3381,18 @@
         <v>58</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="H14" s="18">
         <v>11</v>
       </c>
       <c r="I14" s="18" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31" t="s">
-        <v>207</v>
+      <c r="A15" s="26" t="s">
+        <v>189</v>
       </c>
       <c r="B15" s="18">
         <v>6</v>
@@ -3213,52 +3407,52 @@
         <v>58</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="H15" s="18">
         <v>12</v>
       </c>
       <c r="I15" s="18" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31" t="s">
-        <v>209</v>
+      <c r="A16" s="26" t="s">
+        <v>191</v>
       </c>
       <c r="B16" s="18">
         <v>2</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="H16" s="18">
         <v>13</v>
       </c>
       <c r="I16" s="18" t="s">
-        <v>206</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31" t="s">
-        <v>213</v>
+      <c r="A17" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="B17" s="18">
         <v>3</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D17" s="32"/>
+        <v>196</v>
+      </c>
+      <c r="D17" s="27"/>
       <c r="E17" s="18" t="s">
         <v>71</v>
       </c>
@@ -3269,12 +3463,12 @@
         <v>14</v>
       </c>
       <c r="I17" s="18" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31" t="s">
-        <v>216</v>
+      <c r="A18" s="26" t="s">
+        <v>198</v>
       </c>
       <c r="B18" s="18">
         <v>1</v>
@@ -3295,12 +3489,12 @@
         <v>15</v>
       </c>
       <c r="I18" s="18" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="31" t="s">
-        <v>218</v>
+      <c r="A19" s="26" t="s">
+        <v>200</v>
       </c>
       <c r="B19" s="18">
         <v>19</v>
@@ -3332,54 +3526,54 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" style="25" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="25"/>
-    <col min="3" max="3" width="28.1796875" style="25" customWidth="1"/>
-    <col min="4" max="5" width="8.7265625" style="25"/>
-    <col min="6" max="6" width="54.1796875" style="25" customWidth="1"/>
-    <col min="7" max="16384" width="8.7265625" style="21"/>
+    <col min="1" max="1" width="26.36328125" style="23" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="23"/>
+    <col min="3" max="3" width="28.1796875" style="23" customWidth="1"/>
+    <col min="4" max="5" width="8.7265625" style="23"/>
+    <col min="6" max="6" width="54.1796875" style="23" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="71" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
+      <c r="K1" s="72"/>
+      <c r="L1" s="72"/>
+      <c r="M1" s="72"/>
     </row>
     <row r="2" spans="1:13" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="22" t="s">
+      <c r="D2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="22" t="s">
+      <c r="E2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="20" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3404,7 +3598,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="18">
@@ -3424,7 +3618,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="18">
@@ -3779,7 +3973,7 @@
       <c r="E22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F22" s="24" t="s">
+      <c r="F22" s="22" t="s">
         <v>137</v>
       </c>
     </row>
@@ -3791,6 +3985,7 @@
     <hyperlink ref="F22" r:id="rId1" location="IALA" display="http://catb.org/gpsd/AIVDM.html - IALA"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3799,12 +3994,12 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="54"/>
+    <col min="1" max="1" width="8.7265625" style="44"/>
     <col min="2" max="2" width="17.90625" style="4" customWidth="1"/>
     <col min="3" max="3" width="22.1796875" style="4" customWidth="1"/>
     <col min="4" max="4" width="21.453125" style="4" customWidth="1"/>
@@ -3813,79 +4008,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="57" t="s">
-        <v>157</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="35" t="s">
-        <v>355</v>
-      </c>
-      <c r="D1" s="59" t="s">
-        <v>357</v>
+      <c r="A1" s="47" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="29" t="s">
+        <v>331</v>
+      </c>
+      <c r="D1" s="49" t="s">
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A2" s="55" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>164</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>356</v>
+      <c r="A2" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" s="46" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="58" x14ac:dyDescent="0.35">
-      <c r="A3" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="B3" s="56" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>359</v>
+      <c r="A3" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>376</v>
+      </c>
+      <c r="D3" s="48" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="55" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="56" t="s">
-        <v>166</v>
-      </c>
-      <c r="C4" s="36" t="s">
-        <v>360</v>
+      <c r="A4" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>148</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="B5" s="56" t="s">
-        <v>167</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>361</v>
+      <c r="A5" s="45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="55" t="s">
-        <v>162</v>
-      </c>
-      <c r="B6" s="56" t="s">
-        <v>168</v>
-      </c>
-      <c r="C6" s="36"/>
+      <c r="A6" s="45" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="30"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="56"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3903,790 +4098,790 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.7265625" style="25" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="25"/>
-    <col min="3" max="3" width="27.36328125" style="25" customWidth="1"/>
-    <col min="4" max="4" width="18.54296875" style="25" customWidth="1"/>
-    <col min="5" max="5" width="8.7265625" style="25"/>
-    <col min="6" max="6" width="32.81640625" style="25" customWidth="1"/>
-    <col min="7" max="7" width="8.7265625" style="41"/>
-    <col min="8" max="8" width="13.26953125" style="41" customWidth="1"/>
-    <col min="9" max="9" width="8.7265625" style="41"/>
-    <col min="10" max="10" width="37.1796875" style="41" customWidth="1"/>
-    <col min="11" max="11" width="33.90625" style="41" customWidth="1"/>
-    <col min="12" max="12" width="8.7265625" style="41"/>
-    <col min="13" max="13" width="64.54296875" style="41" customWidth="1"/>
-    <col min="14" max="16384" width="8.7265625" style="41"/>
+    <col min="1" max="1" width="19.7265625" style="23" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="23"/>
+    <col min="3" max="3" width="27.36328125" style="23" customWidth="1"/>
+    <col min="4" max="4" width="18.54296875" style="23" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="23"/>
+    <col min="6" max="6" width="32.81640625" style="23" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="35"/>
+    <col min="8" max="8" width="13.26953125" style="35" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="35"/>
+    <col min="10" max="10" width="37.1796875" style="35" customWidth="1"/>
+    <col min="11" max="11" width="33.90625" style="35" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="35"/>
+    <col min="13" max="13" width="64.54296875" style="35" customWidth="1"/>
+    <col min="14" max="16384" width="8.7265625" style="35"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="J2" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K2" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="L2" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="36" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="37">
+        <v>6</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>274</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="37">
+        <v>6</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" s="37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="37">
+        <v>2</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>275</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="37">
+        <v>2</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M4" s="37" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="37">
+        <v>30</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="I5" s="37">
+        <v>30</v>
+      </c>
+      <c r="J5" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M5" s="37" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="B6" s="37">
+        <v>2</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>278</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>206</v>
+      </c>
+      <c r="I6" s="37">
+        <v>2</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>207</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>208</v>
+      </c>
+      <c r="L6" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M6" s="39" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="37" t="s">
+        <v>279</v>
+      </c>
+      <c r="B7" s="37">
+        <v>120</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="D7" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="E7" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>280</v>
+      </c>
+      <c r="H7" s="37" t="s">
+        <v>210</v>
+      </c>
+      <c r="I7" s="37">
+        <v>30</v>
+      </c>
+      <c r="J7" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>212</v>
+      </c>
+      <c r="L7" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="37" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="37" t="s">
+        <v>281</v>
+      </c>
+      <c r="B8" s="37">
+        <v>8</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D8" s="40"/>
+      <c r="E8" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="H8" s="37" t="s">
+        <v>214</v>
+      </c>
+      <c r="I8" s="37">
+        <v>42</v>
+      </c>
+      <c r="J8" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="K8" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="M8" s="37" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="37" t="s">
+        <v>283</v>
+      </c>
+      <c r="B9" s="37">
+        <v>8</v>
+      </c>
+      <c r="C9" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="E9" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="37" t="s">
+        <v>284</v>
+      </c>
+      <c r="H9" s="37" t="s">
+        <v>219</v>
+      </c>
+      <c r="I9" s="37">
+        <v>120</v>
+      </c>
+      <c r="J9" s="37" t="s">
+        <v>220</v>
+      </c>
+      <c r="K9" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="L9" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="M9" s="37" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="37" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="37">
+        <v>18</v>
+      </c>
+      <c r="C10" s="37" t="s">
+        <v>286</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>287</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>288</v>
+      </c>
+      <c r="H10" s="37" t="s">
+        <v>223</v>
+      </c>
+      <c r="I10" s="37">
+        <v>8</v>
+      </c>
+      <c r="J10" s="37" t="s">
+        <v>224</v>
+      </c>
+      <c r="K10" s="37" t="s">
+        <v>225</v>
+      </c>
+      <c r="L10" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="M10" s="37" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="37" t="s">
+        <v>289</v>
+      </c>
+      <c r="B11" s="37">
+        <v>4</v>
+      </c>
+      <c r="C11" s="37" t="s">
+        <v>290</v>
+      </c>
+      <c r="D11" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="H1" s="47" t="s">
-        <v>219</v>
-      </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="J2" s="42" t="s">
-        <v>51</v>
-      </c>
-      <c r="K2" s="42" t="s">
-        <v>220</v>
-      </c>
-      <c r="L2" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="M2" s="42" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" s="43">
+      <c r="E11" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="H11" s="37" t="s">
+        <v>227</v>
+      </c>
+      <c r="I11" s="37">
+        <v>9</v>
+      </c>
+      <c r="J11" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="K11" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="L11" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="B12" s="37">
+        <v>20</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>294</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>295</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>231</v>
+      </c>
+      <c r="I12" s="37">
+        <v>9</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="K12" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="L12" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M12" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="37" t="s">
+        <v>296</v>
+      </c>
+      <c r="B13" s="37">
+        <v>42</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>216</v>
+      </c>
+      <c r="E13" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>297</v>
+      </c>
+      <c r="H13" s="37" t="s">
+        <v>234</v>
+      </c>
+      <c r="I13" s="37">
         <v>6</v>
       </c>
-      <c r="C3" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="43" t="s">
+      <c r="J13" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="K13" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="L13" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="43" t="s">
-        <v>292</v>
-      </c>
-      <c r="H3" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="I3" s="43">
+      <c r="M13" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="37" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="37">
+        <v>9</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>229</v>
+      </c>
+      <c r="E14" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="H14" s="37" t="s">
+        <v>237</v>
+      </c>
+      <c r="I14" s="37">
         <v>6</v>
       </c>
-      <c r="J3" s="43" t="s">
-        <v>56</v>
-      </c>
-      <c r="K3" s="43" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="43" t="s">
+      <c r="J14" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="K14" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="L14" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M3" s="43" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="B4" s="43">
-        <v>2</v>
-      </c>
-      <c r="C4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="43" t="s">
+      <c r="M14" s="37" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="37" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" s="37">
+        <v>9</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>232</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>233</v>
+      </c>
+      <c r="E15" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="43" t="s">
-        <v>293</v>
-      </c>
-      <c r="H4" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="I4" s="43">
-        <v>2</v>
-      </c>
-      <c r="J4" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="K4" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="L4" s="43" t="s">
+      <c r="F15" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="H15" s="37" t="s">
+        <v>240</v>
+      </c>
+      <c r="I15" s="37">
+        <v>4</v>
+      </c>
+      <c r="J15" s="37" t="s">
+        <v>241</v>
+      </c>
+      <c r="K15" s="37" t="s">
+        <v>242</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="37" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="B16" s="37">
+        <v>6</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>235</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>236</v>
+      </c>
+      <c r="E16" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="43" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="43">
+      <c r="F16" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="H16" s="37" t="s">
+        <v>244</v>
+      </c>
+      <c r="I16" s="37">
+        <v>4</v>
+      </c>
+      <c r="J16" s="37" t="s">
+        <v>245</v>
+      </c>
+      <c r="K16" s="37" t="s">
+        <v>246</v>
+      </c>
+      <c r="L16" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M16" s="37" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="B17" s="37">
+        <v>6</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>238</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="E17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>299</v>
+      </c>
+      <c r="H17" s="37" t="s">
+        <v>248</v>
+      </c>
+      <c r="I17" s="37">
+        <v>5</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>249</v>
+      </c>
+      <c r="K17" s="37" t="s">
+        <v>250</v>
+      </c>
+      <c r="L17" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="M17" s="37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="B18" s="37">
         <v>30</v>
       </c>
-      <c r="C5" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="43" t="s">
+      <c r="C18" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>305</v>
+      </c>
+      <c r="E18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="H5" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="I5" s="43">
-        <v>30</v>
-      </c>
-      <c r="J5" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="K5" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="L5" s="43" t="s">
+      <c r="F18" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="H18" s="37" t="s">
+        <v>252</v>
+      </c>
+      <c r="I18" s="37">
+        <v>5</v>
+      </c>
+      <c r="J18" s="37" t="s">
+        <v>253</v>
+      </c>
+      <c r="K18" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="L18" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="M5" s="43" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="B6" s="43">
-        <v>2</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="D6" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="E6" s="43" t="s">
+      <c r="M18" s="37" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="B19" s="37">
+        <v>6</v>
+      </c>
+      <c r="C19" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="D19" s="40"/>
+      <c r="E19" s="37" t="s">
+        <v>71</v>
+      </c>
+      <c r="F19" s="37" t="s">
+        <v>308</v>
+      </c>
+      <c r="H19" s="37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I19" s="37">
+        <v>6</v>
+      </c>
+      <c r="J19" s="37" t="s">
+        <v>257</v>
+      </c>
+      <c r="K19" s="37" t="s">
+        <v>258</v>
+      </c>
+      <c r="L19" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="43" t="s">
-        <v>296</v>
-      </c>
-      <c r="H6" s="43" t="s">
-        <v>224</v>
-      </c>
-      <c r="I6" s="43">
-        <v>2</v>
-      </c>
-      <c r="J6" s="43" t="s">
-        <v>225</v>
-      </c>
-      <c r="K6" s="43" t="s">
-        <v>226</v>
-      </c>
-      <c r="L6" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="45" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="43" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="43">
+      <c r="M19" s="37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H20" s="37" t="s">
+        <v>260</v>
+      </c>
+      <c r="I20" s="37">
+        <v>8</v>
+      </c>
+      <c r="J20" s="37" t="s">
+        <v>261</v>
+      </c>
+      <c r="K20" s="37" t="s">
+        <v>262</v>
+      </c>
+      <c r="L20" s="37" t="s">
+        <v>76</v>
+      </c>
+      <c r="M20" s="37" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H21" s="37" t="s">
+        <v>264</v>
+      </c>
+      <c r="I21" s="37">
         <v>120</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>238</v>
-      </c>
-      <c r="D7" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="E7" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>298</v>
-      </c>
-      <c r="H7" s="43" t="s">
-        <v>228</v>
-      </c>
-      <c r="I7" s="43">
-        <v>30</v>
-      </c>
-      <c r="J7" s="48" t="s">
-        <v>229</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>230</v>
-      </c>
-      <c r="L7" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M7" s="43" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="43" t="s">
-        <v>299</v>
-      </c>
-      <c r="B8" s="43">
-        <v>8</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="43" t="s">
+      <c r="J21" s="37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K21" s="37" t="s">
+        <v>266</v>
+      </c>
+      <c r="L21" s="37" t="s">
+        <v>217</v>
+      </c>
+      <c r="M21" s="37" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H22" s="37" t="s">
+        <v>268</v>
+      </c>
+      <c r="I22" s="37">
+        <v>1</v>
+      </c>
+      <c r="J22" s="37" t="s">
+        <v>269</v>
+      </c>
+      <c r="K22" s="37" t="s">
+        <v>270</v>
+      </c>
+      <c r="L22" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H23" s="37" t="s">
+        <v>272</v>
+      </c>
+      <c r="I23" s="37">
+        <v>1</v>
+      </c>
+      <c r="J23" s="37" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="40"/>
+      <c r="L23" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F8" s="43" t="s">
-        <v>300</v>
-      </c>
-      <c r="H8" s="43" t="s">
-        <v>232</v>
-      </c>
-      <c r="I8" s="43">
-        <v>42</v>
-      </c>
-      <c r="J8" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="K8" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="L8" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="M8" s="43" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="43" t="s">
-        <v>301</v>
-      </c>
-      <c r="B9" s="43">
-        <v>8</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="D9" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="E9" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>302</v>
-      </c>
-      <c r="H9" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="I9" s="43">
-        <v>120</v>
-      </c>
-      <c r="J9" s="43" t="s">
-        <v>238</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="L9" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="M9" s="43" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="B10" s="43">
-        <v>18</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>304</v>
-      </c>
-      <c r="D10" s="43" t="s">
-        <v>305</v>
-      </c>
-      <c r="E10" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="F10" s="43" t="s">
-        <v>306</v>
-      </c>
-      <c r="H10" s="43" t="s">
-        <v>241</v>
-      </c>
-      <c r="I10" s="43">
-        <v>8</v>
-      </c>
-      <c r="J10" s="43" t="s">
-        <v>242</v>
-      </c>
-      <c r="K10" s="43" t="s">
-        <v>243</v>
-      </c>
-      <c r="L10" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="M10" s="43" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="43" t="s">
-        <v>307</v>
-      </c>
-      <c r="B11" s="43">
-        <v>4</v>
-      </c>
-      <c r="C11" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="D11" s="43" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="H11" s="43" t="s">
-        <v>245</v>
-      </c>
-      <c r="I11" s="43">
-        <v>9</v>
-      </c>
-      <c r="J11" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="K11" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="L11" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="B12" s="43">
-        <v>20</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="D12" s="43" t="s">
-        <v>313</v>
-      </c>
-      <c r="E12" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="43" t="s">
-        <v>310</v>
-      </c>
-      <c r="H12" s="43" t="s">
-        <v>249</v>
-      </c>
-      <c r="I12" s="43">
-        <v>9</v>
-      </c>
-      <c r="J12" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="K12" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="L12" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M12" s="43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="43" t="s">
-        <v>314</v>
-      </c>
-      <c r="B13" s="43">
-        <v>42</v>
-      </c>
-      <c r="C13" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>252</v>
-      </c>
-      <c r="I13" s="43">
-        <v>6</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="K13" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="L13" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M13" s="43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="43" t="s">
-        <v>316</v>
-      </c>
-      <c r="B14" s="43">
-        <v>9</v>
-      </c>
-      <c r="C14" s="43" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="H14" s="43" t="s">
-        <v>255</v>
-      </c>
-      <c r="I14" s="43">
-        <v>6</v>
-      </c>
-      <c r="J14" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="K14" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="L14" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="43" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="B15" s="43">
-        <v>9</v>
-      </c>
-      <c r="C15" s="43" t="s">
-        <v>250</v>
-      </c>
-      <c r="D15" s="43" t="s">
-        <v>251</v>
-      </c>
-      <c r="E15" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="H15" s="43" t="s">
-        <v>258</v>
-      </c>
-      <c r="I15" s="43">
-        <v>4</v>
-      </c>
-      <c r="J15" s="43" t="s">
-        <v>259</v>
-      </c>
-      <c r="K15" s="43" t="s">
-        <v>260</v>
-      </c>
-      <c r="L15" s="43" t="s">
-        <v>181</v>
-      </c>
-      <c r="M15" s="43" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="B16" s="43">
-        <v>6</v>
-      </c>
-      <c r="C16" s="43" t="s">
-        <v>253</v>
-      </c>
-      <c r="D16" s="43" t="s">
-        <v>254</v>
-      </c>
-      <c r="E16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="H16" s="43" t="s">
-        <v>262</v>
-      </c>
-      <c r="I16" s="43">
-        <v>4</v>
-      </c>
-      <c r="J16" s="43" t="s">
-        <v>263</v>
-      </c>
-      <c r="K16" s="43" t="s">
-        <v>264</v>
-      </c>
-      <c r="L16" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M16" s="43" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="B17" s="43">
-        <v>6</v>
-      </c>
-      <c r="C17" s="43" t="s">
-        <v>256</v>
-      </c>
-      <c r="D17" s="43" t="s">
-        <v>257</v>
-      </c>
-      <c r="E17" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>317</v>
-      </c>
-      <c r="H17" s="43" t="s">
-        <v>266</v>
-      </c>
-      <c r="I17" s="43">
-        <v>5</v>
-      </c>
-      <c r="J17" s="43" t="s">
-        <v>267</v>
-      </c>
-      <c r="K17" s="43" t="s">
-        <v>268</v>
-      </c>
-      <c r="L17" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M17" s="43" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="43" t="s">
-        <v>321</v>
-      </c>
-      <c r="B18" s="43">
-        <v>30</v>
-      </c>
-      <c r="C18" s="43" t="s">
-        <v>322</v>
-      </c>
-      <c r="D18" s="43" t="s">
-        <v>323</v>
-      </c>
-      <c r="E18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="43" t="s">
-        <v>324</v>
-      </c>
-      <c r="H18" s="43" t="s">
-        <v>270</v>
-      </c>
-      <c r="I18" s="43">
-        <v>5</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>271</v>
-      </c>
-      <c r="K18" s="43" t="s">
-        <v>272</v>
-      </c>
-      <c r="L18" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="43" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="43" t="s">
-        <v>325</v>
-      </c>
-      <c r="B19" s="43">
-        <v>6</v>
-      </c>
-      <c r="C19" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="46"/>
-      <c r="E19" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="43" t="s">
-        <v>326</v>
-      </c>
-      <c r="H19" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="I19" s="43">
-        <v>6</v>
-      </c>
-      <c r="J19" s="43" t="s">
-        <v>275</v>
-      </c>
-      <c r="K19" s="43" t="s">
-        <v>276</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="M19" s="43" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H20" s="43" t="s">
-        <v>278</v>
-      </c>
-      <c r="I20" s="43">
-        <v>8</v>
-      </c>
-      <c r="J20" s="43" t="s">
-        <v>279</v>
-      </c>
-      <c r="K20" s="43" t="s">
-        <v>280</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="M20" s="43" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H21" s="43" t="s">
-        <v>282</v>
-      </c>
-      <c r="I21" s="43">
-        <v>120</v>
-      </c>
-      <c r="J21" s="43" t="s">
-        <v>283</v>
-      </c>
-      <c r="K21" s="43" t="s">
-        <v>284</v>
-      </c>
-      <c r="L21" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="M21" s="43" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H22" s="43" t="s">
-        <v>286</v>
-      </c>
-      <c r="I22" s="43">
-        <v>1</v>
-      </c>
-      <c r="J22" s="43" t="s">
-        <v>287</v>
-      </c>
-      <c r="K22" s="43" t="s">
-        <v>288</v>
-      </c>
-      <c r="L22" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H23" s="43" t="s">
-        <v>290</v>
-      </c>
-      <c r="I23" s="43">
-        <v>1</v>
-      </c>
-      <c r="J23" s="43" t="s">
-        <v>214</v>
-      </c>
-      <c r="K23" s="46"/>
-      <c r="L23" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="M23" s="43" t="s">
+      <c r="M23" s="37" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4717,33 +4912,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="34" t="s">
-        <v>219</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="73" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>220</v>
-      </c>
-      <c r="E2" s="22" t="s">
+      <c r="D2" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="22" t="s">
-        <v>221</v>
+      <c r="F2" s="20" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
@@ -4763,11 +4958,11 @@
         <v>58</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>222</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B4" s="18">
@@ -4783,11 +4978,11 @@
         <v>58</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="21" t="s">
         <v>64</v>
       </c>
       <c r="B5" s="18">
@@ -4803,360 +4998,360 @@
         <v>58</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="18" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
       <c r="B6" s="18">
         <v>2</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="F6" s="24" t="s">
-        <v>227</v>
+      <c r="F6" s="22" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="18" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="B7" s="18">
         <v>30</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>230</v>
+        <v>212</v>
       </c>
       <c r="E7" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F7" s="18" t="s">
-        <v>231</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
-        <v>232</v>
+        <v>214</v>
       </c>
       <c r="B8" s="18">
         <v>42</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>233</v>
+        <v>215</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>234</v>
+        <v>216</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="F8" s="18" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="18" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="18" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
       <c r="B9" s="18">
         <v>120</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>240</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="18" t="s">
-        <v>241</v>
+        <v>223</v>
       </c>
       <c r="B10" s="18">
         <v>8</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>243</v>
+        <v>225</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F10" s="18" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="18" t="s">
-        <v>245</v>
+        <v>227</v>
       </c>
       <c r="B11" s="18">
         <v>9</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>246</v>
+        <v>228</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F11" s="18" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="18" t="s">
-        <v>249</v>
+        <v>231</v>
       </c>
       <c r="B12" s="18">
         <v>9</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>251</v>
+        <v>233</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="B13" s="18">
         <v>6</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>253</v>
+        <v>235</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>254</v>
+        <v>236</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="18" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="B14" s="18">
         <v>6</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>256</v>
+        <v>238</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>248</v>
+        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="18" t="s">
-        <v>258</v>
+        <v>240</v>
       </c>
       <c r="B15" s="18">
         <v>4</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="18" t="s">
-        <v>262</v>
+        <v>244</v>
       </c>
       <c r="B16" s="18">
         <v>4</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="18" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B17" s="18">
         <v>5</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F17" s="18" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="18" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
       <c r="B18" s="18">
         <v>5</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F18" s="18" t="s">
-        <v>273</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="18" t="s">
-        <v>274</v>
+        <v>256</v>
       </c>
       <c r="B19" s="18">
         <v>6</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>275</v>
+        <v>257</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>276</v>
+        <v>258</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>58</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>277</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="18" t="s">
-        <v>278</v>
+        <v>260</v>
       </c>
       <c r="B20" s="18">
         <v>8</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="18" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="B21" s="18">
         <v>120</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>284</v>
+        <v>266</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>285</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="18" t="s">
-        <v>286</v>
+        <v>268</v>
       </c>
       <c r="B22" s="18">
         <v>1</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>287</v>
+        <v>269</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="E22" s="18" t="s">
         <v>80</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>289</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="35.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="18" t="s">
-        <v>290</v>
+        <v>272</v>
       </c>
       <c r="B23" s="18">
         <v>1</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="32"/>
+        <v>196</v>
+      </c>
+      <c r="D23" s="27"/>
       <c r="E23" s="18" t="s">
         <v>71</v>
       </c>
